--- a/Processing_Tools/Dataset/Hotline_Wiki_Cleaned.xlsx
+++ b/Processing_Tools/Dataset/Hotline_Wiki_Cleaned.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761F0FEB-0C5D-459B-B196-639472FDCA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C4F1BD-2DDA-4CE1-91D8-30A623D43A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,5 +2943,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>